--- a/biology/Zoologie/Clytra/Clytra.xlsx
+++ b/biology/Zoologie/Clytra/Clytra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clytra est un genre d'insectes coléoptères chrysomélidés.
 </t>
@@ -511,7 +523,9 @@
           <t>Principales espèces rencontrées en Europe (à compléter)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Clytra (Clytra) aliena Weise 1897
 Clytra (Clytra) espanoli Daccordi &amp; Petitpierre 1977
@@ -561,14 +575,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (10 juillet 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (10 juillet 2023) :
 Clytra atraphaxidis
 Clytra espanoli
 Clytra laeviuscula
 Clytra quadripunctata
-Selon Paleobiology Database                   (29 août 2014)[2] :
+Selon Paleobiology Database                   (29 août 2014) :
 Clythra carbonaria
 Clytra pandorae</t>
         </is>
